--- a/features/backlog/android/redeem_voucher.xlsx
+++ b/features/backlog/android/redeem_voucher.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\features\backlog\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D465B5B-C390-43F4-955C-D0E474B4FDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED0EB0E-319F-4285-8987-48C1CD54477C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="redeem_voucher" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
-  <si>
-    <t xml:space="preserve">Jira Task No: 1419 </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -58,9 +55,6 @@
     <t>SYMREDVOU-001</t>
   </si>
   <si>
-    <t>check the redeem voucher menu is avaiable or not for free user or not.</t>
-  </si>
-  <si>
     <t>check the redeem voucher menu is avaiable or not for primium user or not.</t>
   </si>
   <si>
@@ -79,12 +73,6 @@
   </si>
   <si>
     <t>Check if the subscriptuon code field is mandatory. Then red ” * ” should be displayed.</t>
-  </si>
-  <si>
-    <t>Check whether placeholder text should be shown properly or not for the subscriptuon code field.</t>
-  </si>
-  <si>
-    <t>Check the design of the subscriptuon code field is as executed or not</t>
   </si>
   <si>
     <t>check the width of the subscriptuon code field</t>
@@ -133,6 +121,49 @@
   </si>
   <si>
     <t>placeholder text should be shown properly</t>
+  </si>
+  <si>
+    <t>check the redeem voucher menu is avaiable or not for free user.</t>
+  </si>
+  <si>
+    <t>1. Open the app
+2. login to the app with premium valid credentials
+3. find the menu for redeem voucher</t>
+  </si>
+  <si>
+    <t>1. Open the app
+2. login to the app with free valid credentials
+3. find the menu for redeem voucher</t>
+  </si>
+  <si>
+    <t>check the design of the subscriptuon code field is as executed or not</t>
+  </si>
+  <si>
+    <t>check whether placeholder text should be shown properly or not for the subscriptuon code field.</t>
+  </si>
+  <si>
+    <t>1. Open the app
+2. login to the app with valid credentials
+3. click on the redeem voucher menu
+4. observe the design</t>
+  </si>
+  <si>
+    <t>1. Open the app
+2. login to the app with valid credentials
+3. click on the redeem voucher menu
+4. observe the placeholder</t>
+  </si>
+  <si>
+    <t>Test case scenario : Redeem Voucher Android</t>
+  </si>
+  <si>
+    <t>1. Open the app
+2. login to the app with valid credentials
+3. click on the redeem voucher menu
+4. find the medatory sign in the field.</t>
+  </si>
+  <si>
+    <t>check the subscriptuon code field design should be same as per the  specification</t>
   </si>
 </sst>
 </file>
@@ -187,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -210,11 +241,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -245,10 +338,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1120,8 +1217,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1139,14 +1236,14 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="G1" s="14"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1168,13 +1265,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1197,25 +1294,25 @@
     </row>
     <row r="3" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -1239,25 +1336,25 @@
     </row>
     <row r="4" spans="1:26" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1281,22 +1378,22 @@
     </row>
     <row r="5" spans="1:26" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
@@ -1321,22 +1418,22 @@
     </row>
     <row r="6" spans="1:26" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
@@ -1361,22 +1458,22 @@
     </row>
     <row r="7" spans="1:26" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
@@ -1401,22 +1498,22 @@
     </row>
     <row r="8" spans="1:26" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
@@ -1441,22 +1538,22 @@
     </row>
     <row r="9" spans="1:26" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1479,24 +1576,24 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -1519,24 +1616,24 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" spans="1:26" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="1"/>
@@ -1561,22 +1658,22 @@
     </row>
     <row r="12" spans="1:26" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="1"/>
@@ -1601,19 +1698,19 @@
     </row>
     <row r="13" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
